--- a/documentation/DevOps - Product Backlog.xlsx
+++ b/documentation/DevOps - Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Priority</t>
   </si>
@@ -25,6 +25,15 @@
     <t>Why</t>
   </si>
   <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
     <t>As the user</t>
   </si>
   <si>
@@ -34,6 +43,9 @@
     <t>So that I can be informed of the current weather in a given location</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>check warnings (severe weather, air quality, etc)</t>
   </si>
   <si>
@@ -46,10 +58,10 @@
     <t>So that I can be more precisely informed of the weather</t>
   </si>
   <si>
-    <t>check future weather for given location</t>
-  </si>
-  <si>
-    <t>So that I can be informed of the weather in the future</t>
+    <t>partial (daily only)</t>
+  </si>
+  <si>
+    <t>partial (hourly only)</t>
   </si>
   <si>
     <t>save locations for future weather checking</t>
@@ -58,22 +70,73 @@
     <t>So that I can be informed of weather in specific areas</t>
   </si>
   <si>
-    <t>check local events (concerts, marathon, etc.)</t>
-  </si>
-  <si>
-    <t>So that I can be informed of events happening in a given location</t>
-  </si>
-  <si>
     <t>check a weather map based on given location</t>
   </si>
   <si>
     <t>So that I can be informed over a broader range of locations</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>as the user</t>
+  </si>
+  <si>
+    <t>search weather locations nearest me</t>
+  </si>
+  <si>
+    <t>So that I can get information for weather locations near me easier</t>
+  </si>
+  <si>
     <t>check previous weather for given location</t>
   </si>
   <si>
     <t>So I can be informed of previous weather trends</t>
+  </si>
+  <si>
+    <t>have the option to maximize the application window</t>
+  </si>
+  <si>
+    <t>So I can see the information in a bigger window</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>change current location manually</t>
+  </si>
+  <si>
+    <t>So that i can get information pertaining to my location if IP based is not working</t>
+  </si>
+  <si>
+    <t>Next Steps:</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Use cases and diagram</t>
+  </si>
+  <si>
+    <t>Start system design</t>
+  </si>
+  <si>
+    <t>sprint backlog</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>moved</t>
   </si>
 </sst>
 </file>
@@ -99,9 +162,11 @@
     <font>
       <b/>
       <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +179,12 @@
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -121,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -131,10 +202,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -355,8 +433,9 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="41.29"/>
     <col customWidth="1" min="3" max="3" width="63.0"/>
-    <col customWidth="1" min="4" max="4" width="78.71"/>
-    <col customWidth="1" min="5" max="5" width="15.71"/>
+    <col customWidth="1" min="4" max="4" width="105.43"/>
+    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -372,121 +451,266 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
